--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_FundProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_FundProfile_AddNewProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE5AB75-08B0-4E73-9A21-80B3F86126EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB032E4-B868-4719-B898-942E2625D0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
   <si>
     <t>Keyword</t>
   </si>
@@ -121,9 +121,6 @@
     <t>dropdown_orgLevelInd_fp</t>
   </si>
   <si>
-    <t>radio_di_Indicator_fp</t>
-  </si>
-  <si>
     <t>getData=Fund</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>getData=CashControl</t>
   </si>
   <si>
-    <t>getData=RadioCBD</t>
-  </si>
-  <si>
     <t>getData=RadioDI</t>
   </si>
   <si>
@@ -220,18 +214,6 @@
     <t>AppFund</t>
   </si>
   <si>
-    <t xml:space="preserve"> J02 - J02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0002 - STATE RESERVE FUND </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0003 - DEBT SERVICE </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0001 - GENERAL TESTGROUP </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 - APPROPRIATED FUND </t>
   </si>
   <si>
@@ -241,12 +223,6 @@
     <t xml:space="preserve"> 1 - POST AGENCY </t>
   </si>
   <si>
-    <t>dropdown_localFundInd_Opt_fp</t>
-  </si>
-  <si>
-    <t>getData=LocalFundIndOpt</t>
-  </si>
-  <si>
     <t>LocalFundIndOpt</t>
   </si>
   <si>
@@ -256,9 +232,6 @@
     <t>getData=WaitForPageLoad</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2 - FUND </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 3 - CASH FUND </t>
   </si>
   <si>
@@ -268,19 +241,49 @@
     <t>button_setStatus</t>
   </si>
   <si>
-    <t>link_radiobutton</t>
-  </si>
-  <si>
     <t>button_saveDetails</t>
   </si>
   <si>
-    <t>txt_programCode_pcp</t>
-  </si>
-  <si>
     <t>checkAccessibility</t>
   </si>
   <si>
     <t>AddNewProfile_FundeProfile</t>
+  </si>
+  <si>
+    <t>clickRadioButtonByName</t>
+  </si>
+  <si>
+    <t>getData=Radio</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>radioButton_cbd_Indicator_fp</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>radioButton_di_Indicator_fp</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J02 - STATE HIGHWAY ADMINISTRATION </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0015 - PENSION TRUST FUND </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0001 - ENTERPRISE DETAILS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0025 - EXEC - ENVIRONMENTAL TRUST </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N - No </t>
   </si>
 </sst>
 </file>
@@ -324,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -358,16 +361,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -686,13 +715,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -700,10 +729,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -718,7 +747,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -729,7 +758,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -746,7 +775,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -760,7 +789,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -771,10 +800,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -788,7 +817,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -802,7 +831,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -816,7 +845,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -824,10 +853,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>39</v>
@@ -838,13 +867,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -852,13 +881,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -866,13 +895,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>77</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -880,13 +909,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -897,10 +926,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -908,13 +937,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -922,13 +951,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -936,75 +965,47 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1014,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BE8AF2-4EA9-40CF-828D-CBF62AEF6757}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1028,23 +1029,26 @@
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.6328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="35.26953125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,64 +1059,67 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1128,35 +1135,44 @@
       <c r="F2">
         <v>2025</v>
       </c>
-      <c r="G2" t="s">
-        <v>64</v>
+      <c r="G2" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
+        <v>85</v>
       </c>
       <c r="N2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" t="s">
         <v>68</v>
-      </c>
-      <c r="O2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" t="s">
-        <v>77</v>
       </c>
       <c r="R2">
         <v>9000</v>
       </c>
       <c r="S2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="T2" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="U2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_FundProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_FundProfile_AddNewProfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB032E4-B868-4719-B898-942E2625D0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B25CB61-AC1E-4084-B6F4-14CAD30767E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
   <si>
     <t>Keyword</t>
   </si>
@@ -268,9 +268,6 @@
     <t>radioButton_di_Indicator_fp</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t xml:space="preserve"> J02 - STATE HIGHWAY ADMINISTRATION </t>
   </si>
   <si>
@@ -280,10 +277,10 @@
     <t xml:space="preserve"> 0001 - ENTERPRISE DETAILS </t>
   </si>
   <si>
-    <t xml:space="preserve"> 0025 - EXEC - ENVIRONMENTAL TRUST </t>
-  </si>
-  <si>
     <t xml:space="preserve"> N - No </t>
+  </si>
+  <si>
+    <t>0025</t>
   </si>
 </sst>
 </file>
@@ -389,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -397,6 +394,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -856,10 +854,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -870,10 +868,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -884,10 +882,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -895,13 +893,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>75</v>
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -909,13 +907,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -923,13 +921,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -940,10 +938,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -951,13 +949,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -965,22 +963,28 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>10</v>
+        <v>79</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
@@ -994,15 +998,9 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
@@ -1017,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BE8AF2-4EA9-40CF-828D-CBF62AEF6757}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1133,22 +1131,22 @@
         <v>17</v>
       </c>
       <c r="F2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" t="s">
         <v>81</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>82</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
         <v>83</v>
-      </c>
-      <c r="K2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" t="s">
-        <v>85</v>
       </c>
       <c r="N2" t="s">
         <v>62</v>
@@ -1172,7 +1170,7 @@
         <v>78</v>
       </c>
       <c r="V2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
